--- a/CSV/区划编号.xlsx
+++ b/CSV/区划编号.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="郡区划编号" sheetId="4" r:id="rId2"/>
     <sheet name="划分依据" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1575,12 +1575,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1643,8 +1643,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1660,6 +1660,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1987,14 +1990,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="111" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="10.83203125" style="3"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
@@ -2002,7 +2005,7 @@
     <col min="7" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="B5" s="3">
         <v>1</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="B17" s="3">
         <v>2</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="3">
         <v>2</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="3">
         <v>2</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="3">
         <v>2</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="3">
         <v>2</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="3">
         <v>2</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="3">
         <v>2</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="3">
         <v>2</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="3">
         <v>2</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="3">
         <v>2</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="B33" s="3">
         <v>2</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="B34" s="3">
         <v>2</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="B35" s="3">
         <v>2</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" s="3">
         <v>2</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="B37" s="3">
         <v>2</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="B38" s="3">
         <v>2</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" s="3">
         <v>2</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="B42" s="3">
         <v>2</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="B43" s="3">
         <v>3</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="B44" s="3">
         <v>3</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="B45" s="3">
         <v>3</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="B48" s="3">
         <v>4</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="B49" s="3">
         <v>4</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="B50" s="3">
         <v>4</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="B51" s="3">
         <v>4</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="B52" s="3">
         <v>4</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="B53" s="3">
         <v>4</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>183</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="B55" s="3">
         <v>3</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="B56" s="3">
         <v>3</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="B57" s="3">
         <v>3</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="B58" s="3">
         <v>3</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="B59" s="3">
         <v>3</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="B61" s="3">
         <v>5</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="B62" s="3">
         <v>5</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="B63" s="3">
         <v>5</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="B64" s="3">
         <v>5</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="B67" s="3">
         <v>5</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="B68" s="3">
         <v>6</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>230</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="B70" s="3">
         <v>6</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9">
       <c r="B71" s="3">
         <v>6</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="B72" s="3">
         <v>6</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9">
       <c r="B73" s="3">
         <v>6</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9">
       <c r="B74" s="3">
         <v>6</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9">
       <c r="B75" s="3">
         <v>6</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9">
       <c r="B76" s="3">
         <v>6</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>255</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9">
       <c r="B78" s="3">
         <v>7</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9">
       <c r="B79" s="3">
         <v>7</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9">
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9">
       <c r="B81" s="3">
         <v>7</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9">
       <c r="B82" s="3">
         <v>7</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9">
       <c r="B84" s="3">
         <v>7</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9">
       <c r="B85" s="3">
         <v>7</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9">
       <c r="B86" s="3">
         <v>7</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9">
       <c r="B87" s="3">
         <v>7</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>290</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9">
       <c r="B89" s="3">
         <v>7</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9">
       <c r="B90" s="3">
         <v>7</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9">
       <c r="B91" s="3">
         <v>7</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9">
       <c r="B92" s="3">
         <v>7</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9">
       <c r="B93" s="3">
         <v>7</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9">
       <c r="B94" s="3">
         <v>7</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9">
       <c r="B95" s="3">
         <v>7</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9">
       <c r="B96" s="3">
         <v>7</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9">
       <c r="B97" s="3">
         <v>7</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9">
       <c r="B99" s="3">
         <v>8</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9">
       <c r="B100" s="3">
         <v>8</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9">
       <c r="B101" s="3">
         <v>8</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9">
       <c r="B102" s="3">
         <v>8</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9">
       <c r="B103" s="3">
         <v>8</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9">
       <c r="B104" s="3">
         <v>8</v>
       </c>
@@ -4651,535 +4654,551 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A105"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>478</v>
       </c>
@@ -5199,14 +5218,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -5217,7 +5236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>348</v>
       </c>
@@ -5225,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>349</v>
       </c>
@@ -5233,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>350</v>
       </c>
@@ -5241,7 +5260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>351</v>
       </c>
@@ -5249,7 +5268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>352</v>
       </c>
@@ -5257,7 +5276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -5265,7 +5284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>354</v>
       </c>
